--- a/data/combined data/combined data - 1 cleaning/cleaning step 4 - career/4.2 career_divided_unparsed_uncoded/career_visit_unparsed_uncoded.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 4 - career/4.2 career_divided_unparsed_uncoded/career_visit_unparsed_uncoded.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,6 +441,11 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>CareerDateString_2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>CareerStringID</t>
         </is>
       </c>
@@ -453,6 +458,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2013.08</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
@@ -465,6 +475,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2012.08</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
@@ -477,6 +492,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2014.12</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
@@ -489,6 +509,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2012.09</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
@@ -501,6 +526,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
@@ -513,6 +543,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
@@ -525,6 +560,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
@@ -537,6 +577,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2013.05</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
@@ -549,6 +594,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>2012.12</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
@@ -561,6 +611,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>2013.04</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
@@ -571,9 +626,10 @@
           <t>1937. 6 함남 보천보 습격, 함남 중평리 습격</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>65</t>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>71</t>
         </is>
       </c>
     </row>
@@ -583,9 +639,10 @@
           <t>1945 이전 김일성과 빨치산 활동</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>71</t>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>77</t>
         </is>
       </c>
     </row>
@@ -595,9 +652,10 @@
           <t>1945년이전 빨치산 활동</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>82</t>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -609,7 +667,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>연도미상</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -619,9 +682,10 @@
           <t>1945이전 빨치산 활동 연도미상 소련 보병학교, 육군대학</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>85</t>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -631,9 +695,10 @@
           <t>1945이전 빨치산 활동(김일성 전령, 유격대 중대장)</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>86</t>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -645,7 +710,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -657,7 +727,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>연도미상</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -667,9 +742,10 @@
           <t>1945이전 빨치산 활동(김일성유격대 간호원)</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>89</t>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -679,9 +755,10 @@
           <t>1945이전 빨치산 활동(김일성의 빨치산 동지)</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>90</t>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -691,9 +768,10 @@
           <t>1985. 5 남북적십자본회담 수석자문위원 (제8~10차, 서울 2회 방문)</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>912</t>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>918</t>
         </is>
       </c>
     </row>
@@ -705,7 +783,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4068</t>
+          <t>2021.05</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>4335</t>
         </is>
       </c>
     </row>
@@ -717,7 +800,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4069</t>
+          <t>2021.04</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4336</t>
         </is>
       </c>
     </row>
@@ -729,7 +817,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4070</t>
+          <t>2021.02</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>4337</t>
         </is>
       </c>
     </row>
@@ -741,7 +834,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4072</t>
+          <t>2019.06</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>4339</t>
         </is>
       </c>
     </row>
@@ -753,7 +851,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4134</t>
+          <t>1985.05</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>4405</t>
         </is>
       </c>
     </row>
@@ -765,7 +868,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4835</t>
+          <t>2016.03</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>5395</t>
         </is>
       </c>
     </row>
@@ -777,7 +885,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4977</t>
+          <t>연도미상</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>5550</t>
         </is>
       </c>
     </row>
@@ -787,9 +900,10 @@
           <t>연도미상 빨치산 활동</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>5321</t>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>5957</t>
         </is>
       </c>
     </row>
@@ -801,7 +915,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5663</t>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>6392</t>
         </is>
       </c>
     </row>
@@ -813,7 +932,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5664</t>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>6393</t>
         </is>
       </c>
     </row>
@@ -825,7 +949,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5755</t>
+          <t>2015.08</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>6514</t>
         </is>
       </c>
     </row>
@@ -837,7 +966,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>6913</t>
+          <t>1937.06</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>7924</t>
         </is>
       </c>
     </row>
